--- a/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Habitat-trans_orig.xlsx
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8707</v>
+        <v>11459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00381306426094593</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01254633545623405</v>
+        <v>0.01651082747204596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -811,19 +811,19 @@
         <v>33124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23266</v>
+        <v>23615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44892</v>
+        <v>44725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04812013165240777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03379947341232415</v>
+        <v>0.03430651179106354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06521672799530331</v>
+        <v>0.06497469862586475</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -832,19 +832,19 @@
         <v>35770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25960</v>
+        <v>25323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49255</v>
+        <v>48906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02587587411107938</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01877908748119862</v>
+        <v>0.01831847985465067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03563066262531461</v>
+        <v>0.03537881785066047</v>
       </c>
     </row>
     <row r="6">
@@ -861,7 +861,7 @@
         <v>691366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>685305</v>
+        <v>682553</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>694012</v>
@@ -870,7 +870,7 @@
         <v>0.996186935739054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9874536645437658</v>
+        <v>0.9834891725279549</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -882,19 +882,19 @@
         <v>655227</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>643459</v>
+        <v>643626</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>665085</v>
+        <v>664736</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9518798683475922</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9347832720046969</v>
+        <v>0.9350253013741351</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9662005265876759</v>
+        <v>0.9656934882089363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1343</v>
@@ -903,19 +903,19 @@
         <v>1346593</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1333108</v>
+        <v>1333457</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1356403</v>
+        <v>1357040</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9741241258889206</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9643693373746859</v>
+        <v>0.9646211821493395</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9812209125188015</v>
+        <v>0.9816815201453494</v>
       </c>
     </row>
     <row r="7">
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7818</v>
+        <v>6970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00214642141406523</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008128191919458313</v>
+        <v>0.007246949620983458</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6927</v>
+        <v>6914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00200320328863115</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.007153442731204562</v>
+        <v>0.007139420020095643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1049,19 +1049,19 @@
         <v>4004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>995</v>
+        <v>1117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9631</v>
+        <v>10377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002074567752843638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.000515645680452609</v>
+        <v>0.0005784437851413121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.004989679632587045</v>
+        <v>0.00537612456089712</v>
       </c>
     </row>
     <row r="9">
@@ -1078,19 +1078,19 @@
         <v>14180</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7940</v>
+        <v>7983</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23396</v>
+        <v>24184</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01474328892081656</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008254939899394092</v>
+        <v>0.008300552303321947</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02432538944070381</v>
+        <v>0.02514446802578829</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -1099,19 +1099,19 @@
         <v>81748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>65188</v>
+        <v>65993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100033</v>
+        <v>99204</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08441576369630692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06731611401351831</v>
+        <v>0.06814687347536777</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1032976525375376</v>
+        <v>0.1024413773149687</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>91</v>
@@ -1120,19 +1120,19 @@
         <v>95928</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>77997</v>
+        <v>79316</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>117552</v>
+        <v>116363</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04969851811275442</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04040876158918565</v>
+        <v>0.04109212049007727</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06090178387109137</v>
+        <v>0.06028577881555265</v>
       </c>
     </row>
     <row r="10">
@@ -1149,19 +1149,19 @@
         <v>945555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>936441</v>
+        <v>935573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>952576</v>
+        <v>952377</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9831102896651182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9736336950647971</v>
+        <v>0.9727315145526256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9904091721167633</v>
+        <v>0.9902023363418425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>828</v>
@@ -1170,19 +1170,19 @@
         <v>884705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>865632</v>
+        <v>867202</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>901581</v>
+        <v>900805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9135810330150619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8938852475504494</v>
+        <v>0.8955067685584364</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9310070982258035</v>
+        <v>0.930206229331848</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1709</v>
@@ -1191,19 +1191,19 @@
         <v>1830261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1808076</v>
+        <v>1808887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1848964</v>
+        <v>1846495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.948226914134402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9367333972494694</v>
+        <v>0.9371533774863782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9579167958849707</v>
+        <v>0.9566376145267124</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8987</v>
+        <v>10243</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00405952654925855</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01324505582488697</v>
+        <v>0.01509633187656868</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1316,19 +1316,19 @@
         <v>2482</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6785</v>
+        <v>6441</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003629267222410552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001085699403505339</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.009921427801377437</v>
+        <v>0.009418573618187513</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1337,19 +1337,19 @@
         <v>5236</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13215</v>
+        <v>11380</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003843554886731724</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001315004800544004</v>
+        <v>0.001309257744916301</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009700132718021197</v>
+        <v>0.008353234315395785</v>
       </c>
     </row>
     <row r="13">
@@ -1366,19 +1366,19 @@
         <v>10284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4763</v>
+        <v>4836</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19836</v>
+        <v>19550</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01515614740779038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007019649459352424</v>
+        <v>0.007126958303948397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02923520016820563</v>
+        <v>0.02881331335678709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1387,19 +1387,19 @@
         <v>37609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26966</v>
+        <v>26808</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50186</v>
+        <v>49878</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05499699061701884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03943313422133273</v>
+        <v>0.0392022825803287</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07338862305137536</v>
+        <v>0.07293806374519755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1408,19 +1408,19 @@
         <v>47893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35247</v>
+        <v>35723</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62013</v>
+        <v>63298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0351545358387924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02587189954292729</v>
+        <v>0.02622131649934088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04551883844631113</v>
+        <v>0.04646263957004915</v>
       </c>
     </row>
     <row r="14">
@@ -1437,19 +1437,19 @@
         <v>665471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>655567</v>
+        <v>655275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>672105</v>
+        <v>671873</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807843260429511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9661877435321712</v>
+        <v>0.9657578971414482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905621870426028</v>
+        <v>0.9902200562311698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>654</v>
@@ -1458,19 +1458,19 @@
         <v>643750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630942</v>
+        <v>631770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>655164</v>
+        <v>655069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9413737421605706</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9226444119266554</v>
+        <v>0.9238553016633794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580646334366961</v>
+        <v>0.9579251760137978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1284</v>
@@ -1479,19 +1479,19 @@
         <v>1309221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1294304</v>
+        <v>1293160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1322257</v>
+        <v>1321673</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9610019092744759</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9500524406860473</v>
+        <v>0.9492124401181932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9705707924450727</v>
+        <v>0.9701417970892688</v>
       </c>
     </row>
     <row r="15">
@@ -1583,19 +1583,19 @@
         <v>5573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2326</v>
+        <v>2307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13469</v>
+        <v>13161</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00591460171164109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002469081860793019</v>
+        <v>0.002448085772454323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01429471098001286</v>
+        <v>0.0139676580268135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1604,19 +1604,19 @@
         <v>8061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3946</v>
+        <v>3940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14925</v>
+        <v>16533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007761229395968744</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003799573210870131</v>
+        <v>0.003793480422978288</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01436966348839588</v>
+        <v>0.01591841589008714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1625,19 +1625,19 @@
         <v>13634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7161</v>
+        <v>7488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22788</v>
+        <v>22209</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006882845179650742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003614981796638635</v>
+        <v>0.003780278684702709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01150426976171568</v>
+        <v>0.01121201734741282</v>
       </c>
     </row>
     <row r="17">
@@ -1654,19 +1654,19 @@
         <v>28193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20225</v>
+        <v>19287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41265</v>
+        <v>41187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02992164773344163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02146499186056414</v>
+        <v>0.02046988120042465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04379499574169483</v>
+        <v>0.04371264516125391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -1675,19 +1675,19 @@
         <v>98969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81606</v>
+        <v>81342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121388</v>
+        <v>119723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09528933996893865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07857173920374283</v>
+        <v>0.07831794816714592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1168748283761398</v>
+        <v>0.1152716634062851</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -1696,19 +1696,19 @@
         <v>127161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104562</v>
+        <v>106400</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>149766</v>
+        <v>151303</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06419593137114708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05278676032864214</v>
+        <v>0.05371470606578677</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07560778262297389</v>
+        <v>0.07638326412479417</v>
       </c>
     </row>
     <row r="18">
@@ -1725,19 +1725,19 @@
         <v>908456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>894469</v>
+        <v>895580</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>917522</v>
+        <v>918058</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9641637505549173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9493182869191021</v>
+        <v>0.9504982279275278</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9737849522334349</v>
+        <v>0.9743547493663055</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>895</v>
@@ -1746,19 +1746,19 @@
         <v>931582</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>908805</v>
+        <v>909550</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>949514</v>
+        <v>949466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8969494306350926</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8750190559864629</v>
+        <v>0.8757358745167264</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9142144602371856</v>
+        <v>0.9141679958484821</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1854</v>
@@ -1767,19 +1767,19 @@
         <v>1840039</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1816336</v>
+        <v>1814181</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1862909</v>
+        <v>1862551</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9289212234492021</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9169549658394057</v>
+        <v>0.9158673147620425</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9404670518159941</v>
+        <v>0.9402862929293941</v>
       </c>
     </row>
     <row r="19">
@@ -1871,19 +1871,19 @@
         <v>10392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4749</v>
+        <v>4940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19216</v>
+        <v>20155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003171550351621904</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001449318221657581</v>
+        <v>0.001507571368564296</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005864808367870647</v>
+        <v>0.00615137107274529</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -1892,19 +1892,19 @@
         <v>12483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6775</v>
+        <v>6535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20821</v>
+        <v>20503</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003693965023305287</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002005012643814613</v>
+        <v>0.001933857375866797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006161661928311479</v>
+        <v>0.006067343117861831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1913,19 +1913,19 @@
         <v>22874</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14911</v>
+        <v>15280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34540</v>
+        <v>35510</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003436786386297051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00224035371774499</v>
+        <v>0.002295792503078388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005189449449453151</v>
+        <v>0.005335314983916256</v>
       </c>
     </row>
     <row r="21">
@@ -1942,19 +1942,19 @@
         <v>55303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42771</v>
+        <v>42493</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70583</v>
+        <v>72606</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01687840645968696</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01305360795077747</v>
+        <v>0.01296870506884806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02154202166483644</v>
+        <v>0.0221592749282627</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>245</v>
@@ -1963,19 +1963,19 @@
         <v>251449</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>221321</v>
+        <v>221678</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>287028</v>
+        <v>285198</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07441088019743507</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06549511887259424</v>
+        <v>0.06560074211112686</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08493962496823815</v>
+        <v>0.08439817475393135</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>299</v>
@@ -1984,19 +1984,19 @@
         <v>306752</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>276494</v>
+        <v>272713</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>343780</v>
+        <v>342009</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04608831580254832</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04154224252154648</v>
+        <v>0.04097407782747456</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05165157759822301</v>
+        <v>0.05138561051721378</v>
       </c>
     </row>
     <row r="22">
@@ -2013,19 +2013,19 @@
         <v>3210848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3194302</v>
+        <v>3192430</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3225795</v>
+        <v>3225722</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9799500431886912</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9749001433881248</v>
+        <v>0.9743287908580693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9845117786999074</v>
+        <v>0.9844894197820907</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3039</v>
@@ -2034,19 +2034,19 @@
         <v>3115265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3079752</v>
+        <v>3082045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3146847</v>
+        <v>3146420</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9218951547792597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9113856732299949</v>
+        <v>0.9120643145761071</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9312411162820512</v>
+        <v>0.9311147108267727</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6190</v>
@@ -2055,19 +2055,19 @@
         <v>6326115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6288387</v>
+        <v>6288471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6356959</v>
+        <v>6361121</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9504748978111546</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9448064726065817</v>
+        <v>0.9448190043536913</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9551090887920441</v>
+        <v>0.9557345246447744</v>
       </c>
     </row>
     <row r="23">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4963</v>
+        <v>4368</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001250271114076507</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00707565631614686</v>
+        <v>0.006227869884221075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2420,19 +2420,19 @@
         <v>4089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10205</v>
+        <v>10242</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005873750017692095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001496610600060156</v>
+        <v>0.001498279586906492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01466106498456103</v>
+        <v>0.01471410613312168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2441,19 +2441,19 @@
         <v>4966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1756</v>
+        <v>1901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11065</v>
+        <v>11974</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003553296252435524</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001256334879109211</v>
+        <v>0.001360476014532433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007917817971743025</v>
+        <v>0.00856826509224287</v>
       </c>
     </row>
     <row r="5">
@@ -2470,19 +2470,19 @@
         <v>9149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4235</v>
+        <v>4428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16395</v>
+        <v>16328</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0130442804331001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006037989453814877</v>
+        <v>0.006313739239265934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02337674645373861</v>
+        <v>0.02328052825579512</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -2491,19 +2491,19 @@
         <v>19679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12030</v>
+        <v>11805</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31849</v>
+        <v>30947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02827114056725975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01728251550009962</v>
+        <v>0.01695932167885758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04575471288612271</v>
+        <v>0.04445859376887244</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -2512,19 +2512,19 @@
         <v>28828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19493</v>
+        <v>19733</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41004</v>
+        <v>41348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02062901097871223</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0139493404084756</v>
+        <v>0.01412042523760211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02934214344069639</v>
+        <v>0.02958822989756054</v>
       </c>
     </row>
     <row r="6">
@@ -2541,19 +2541,19 @@
         <v>691332</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>684234</v>
+        <v>683350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>696351</v>
+        <v>696224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9857054484528234</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9755842523539807</v>
+        <v>0.9743248069206192</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9928608449072756</v>
+        <v>0.9926799225038635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>627</v>
@@ -2562,19 +2562,19 @@
         <v>672322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>660588</v>
+        <v>660014</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>681388</v>
+        <v>680871</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9658551094150482</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9489986194592008</v>
+        <v>0.9481733543931011</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9788790481680942</v>
+        <v>0.9781365667945394</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1289</v>
@@ -2583,19 +2583,19 @@
         <v>1363654</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1350127</v>
+        <v>1349767</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1374363</v>
+        <v>1373699</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9758176927688522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9661376283086726</v>
+        <v>0.9658801503134145</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9834804202282327</v>
+        <v>0.9830054875365019</v>
       </c>
     </row>
     <row r="7">
@@ -2687,19 +2687,19 @@
         <v>3505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9722</v>
+        <v>10994</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003464344505102487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0009380447137238935</v>
+        <v>0.0009398559801983015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009608480570547133</v>
+        <v>0.01086535758927454</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2708,19 +2708,19 @@
         <v>5306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1430</v>
+        <v>1125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13924</v>
+        <v>13468</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005162768452825339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001391017461668811</v>
+        <v>0.001095054560349236</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01354847360346013</v>
+        <v>0.01310478947006915</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2729,19 +2729,19 @@
         <v>8811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3888</v>
+        <v>4078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17805</v>
+        <v>17995</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004320180867592793</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001906373043257489</v>
+        <v>0.001999469857052049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008729695124452604</v>
+        <v>0.008823160867543669</v>
       </c>
     </row>
     <row r="9">
@@ -2758,19 +2758,19 @@
         <v>12317</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6301</v>
+        <v>6353</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21140</v>
+        <v>21570</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01217346813374727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006227851304229832</v>
+        <v>0.006278385870009009</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02089273961112126</v>
+        <v>0.02131821830305027</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -2779,19 +2779,19 @@
         <v>70505</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55854</v>
+        <v>55990</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>88826</v>
+        <v>89513</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06860310660206433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05434763049060909</v>
+        <v>0.05447940352208108</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08643003324688091</v>
+        <v>0.08709847395829905</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -2800,19 +2800,19 @@
         <v>82822</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>66251</v>
+        <v>65961</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>104475</v>
+        <v>103156</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04060838074088402</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03248330406732691</v>
+        <v>0.032341310359199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05122500245371907</v>
+        <v>0.05057831706913659</v>
       </c>
     </row>
     <row r="10">
@@ -2829,19 +2829,19 @@
         <v>995989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>986226</v>
+        <v>985759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1003107</v>
+        <v>1003451</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9843621873611502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9747131874479393</v>
+        <v>0.9742510815103664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9913970536000474</v>
+        <v>0.9917365454726493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>866</v>
@@ -2850,19 +2850,19 @@
         <v>951911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>931085</v>
+        <v>932855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>967124</v>
+        <v>967996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9262341249451104</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.905970165503996</v>
+        <v>0.9076920514852725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9410366786174112</v>
+        <v>0.9418853824143472</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1782</v>
@@ -2871,19 +2871,19 @@
         <v>1947901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1925207</v>
+        <v>1925810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1964166</v>
+        <v>1965195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9550714383915232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9439444478041719</v>
+        <v>0.9442402518573726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9630466384086137</v>
+        <v>0.9635511813219513</v>
       </c>
     </row>
     <row r="11">
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4577</v>
+        <v>4608</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001205405644170926</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.00605782041913804</v>
+        <v>0.006099313173927403</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -2996,19 +2996,19 @@
         <v>6839</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2940</v>
+        <v>2917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13643</v>
+        <v>13621</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00885846264510934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003808441936011808</v>
+        <v>0.00377851009224143</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01767113774601407</v>
+        <v>0.01764285192152592</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3017,19 +3017,19 @@
         <v>7750</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2999</v>
+        <v>3761</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14042</v>
+        <v>14485</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005073173949182926</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00196295221245747</v>
+        <v>0.002462302497418646</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.00919219187239011</v>
+        <v>0.00948240003180458</v>
       </c>
     </row>
     <row r="13">
@@ -3046,19 +3046,19 @@
         <v>25537</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16286</v>
+        <v>16425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37657</v>
+        <v>38493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03379946977335985</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02155457509938097</v>
+        <v>0.02173821755719192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04983955118063979</v>
+        <v>0.0509468862881857</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -3067,19 +3067,19 @@
         <v>48636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35044</v>
+        <v>35424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64464</v>
+        <v>63631</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06299797742790623</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04539224686849493</v>
+        <v>0.04588516575064909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08349979999398902</v>
+        <v>0.0824212711387005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -3088,19 +3088,19 @@
         <v>74173</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56296</v>
+        <v>58246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93138</v>
+        <v>93363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04855606474528505</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03685334974351822</v>
+        <v>0.03812924409915393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06097117199259719</v>
+        <v>0.06111792745842325</v>
       </c>
     </row>
     <row r="14">
@@ -3117,19 +3117,19 @@
         <v>729111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>717001</v>
+        <v>715539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>738418</v>
+        <v>738288</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9649951245824693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9489670710134505</v>
+        <v>0.947032735965285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9773139491989656</v>
+        <v>0.9771417224399531</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -3138,19 +3138,19 @@
         <v>716547</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>699577</v>
+        <v>700952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>729987</v>
+        <v>730987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9281435599269844</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9061622423756547</v>
+        <v>0.9079431940342284</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9455524845995609</v>
+        <v>0.9468477525327923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1313</v>
@@ -3159,19 +3159,19 @@
         <v>1445658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1426294</v>
+        <v>1425348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1464433</v>
+        <v>1461557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.946370761305532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9336944560616174</v>
+        <v>0.9330750252765194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9586614728992777</v>
+        <v>0.9567789065867642</v>
       </c>
     </row>
     <row r="15">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6620</v>
+        <v>6803</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00203545365204742</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007005465033051785</v>
+        <v>0.007199538603706089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3284,19 +3284,19 @@
         <v>16733</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9899</v>
+        <v>9986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26369</v>
+        <v>27443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01595215123309491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009436836275410079</v>
+        <v>0.009519912419644779</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02513850610918433</v>
+        <v>0.02616213860523149</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3305,19 +3305,19 @@
         <v>18657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11705</v>
+        <v>11437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30187</v>
+        <v>28361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009356894909903279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005870561190159046</v>
+        <v>0.005736279560330082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01513975451003814</v>
+        <v>0.01422376227624763</v>
       </c>
     </row>
     <row r="17">
@@ -3334,19 +3334,19 @@
         <v>31081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21452</v>
+        <v>21684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43504</v>
+        <v>43231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03289260710211946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02270198100174432</v>
+        <v>0.02294810773444831</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04603992074135085</v>
+        <v>0.04575089904415385</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -3355,19 +3355,19 @@
         <v>91311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73722</v>
+        <v>74108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109732</v>
+        <v>108455</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08704895895197098</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07028112944864406</v>
+        <v>0.07064883252941309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1046098333997525</v>
+        <v>0.1033921975712091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>121</v>
@@ -3376,19 +3376,19 @@
         <v>122392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101075</v>
+        <v>100916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>144502</v>
+        <v>145249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06138374492410101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05069253434758161</v>
+        <v>0.05061293800492127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07247269361142489</v>
+        <v>0.07284695027649774</v>
       </c>
     </row>
     <row r="18">
@@ -3405,19 +3405,19 @@
         <v>911918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>899013</v>
+        <v>899422</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>921760</v>
+        <v>921792</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9650719392458331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9514154018681837</v>
+        <v>0.9518473955785364</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9754884102718638</v>
+        <v>0.9755223041724006</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>894</v>
@@ -3426,19 +3426,19 @@
         <v>940920</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>921668</v>
+        <v>921915</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>959838</v>
+        <v>959230</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8969988898149341</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8786456613843429</v>
+        <v>0.8788813566792026</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9150342689194633</v>
+        <v>0.9144549827245929</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1769</v>
@@ -3447,19 +3447,19 @@
         <v>1852837</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1828103</v>
+        <v>1828988</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1875157</v>
+        <v>1876126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9292593601659958</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9168541400332082</v>
+        <v>0.917298246895759</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9404536447619559</v>
+        <v>0.9409394484975475</v>
       </c>
     </row>
     <row r="19">
@@ -3551,19 +3551,19 @@
         <v>7216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3055</v>
+        <v>2901</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15468</v>
+        <v>14606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002113940047598578</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0008950015475120834</v>
+        <v>0.0008498926530995436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004531095273735143</v>
+        <v>0.004278691944179949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -3572,19 +3572,19 @@
         <v>32967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22766</v>
+        <v>23275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46227</v>
+        <v>47946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009300024991978049</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006422428115842532</v>
+        <v>0.006566075724993212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0130407750854865</v>
+        <v>0.0135256163118233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -3593,19 +3593,19 @@
         <v>40183</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27508</v>
+        <v>28164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53521</v>
+        <v>54831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005774701539821827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00395321235172104</v>
+        <v>0.004047420958963389</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007691513733287239</v>
+        <v>0.007879761677384245</v>
       </c>
     </row>
     <row r="21">
@@ -3622,19 +3622,19 @@
         <v>78084</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>60268</v>
+        <v>61524</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>97674</v>
+        <v>97404</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02287416183049293</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01765508754495761</v>
+        <v>0.0180230642263311</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0286128576166573</v>
+        <v>0.02853353024088105</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>218</v>
@@ -3643,19 +3643,19 @@
         <v>230131</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>201498</v>
+        <v>202954</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>259908</v>
+        <v>263880</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06492082944992032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05684332753416757</v>
+        <v>0.05725406242052262</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0733209449242667</v>
+        <v>0.07444140474804668</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>291</v>
@@ -3664,19 +3664,19 @@
         <v>308216</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>277604</v>
+        <v>273102</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>340800</v>
+        <v>344912</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04429372796266053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03989446862355961</v>
+        <v>0.03924749613417682</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04897649909688335</v>
+        <v>0.04956741842757821</v>
       </c>
     </row>
     <row r="22">
@@ -3693,19 +3693,19 @@
         <v>3328350</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3307293</v>
+        <v>3307965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3346908</v>
+        <v>3345639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9750118981219085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9688432484710132</v>
+        <v>0.9690400890092666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9804482128715629</v>
+        <v>0.9800764968322371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3036</v>
@@ -3714,19 +3714,19 @@
         <v>3281701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3249813</v>
+        <v>3247122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3311690</v>
+        <v>3310069</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9257791455581016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9167833013683202</v>
+        <v>0.9160243473259827</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9342390941738298</v>
+        <v>0.933781964674817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6153</v>
@@ -3735,19 +3735,19 @@
         <v>6610050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6573681</v>
+        <v>6572452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6644186</v>
+        <v>6649265</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9499315704975176</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.944704890984043</v>
+        <v>0.9445282913244446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.954837178854506</v>
+        <v>0.9555671298621121</v>
       </c>
     </row>
     <row r="23">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6881</v>
+        <v>6608</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0029898652804746</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01019653383460393</v>
+        <v>0.009792084164222876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4100,19 +4100,19 @@
         <v>6530</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2848</v>
+        <v>2753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13240</v>
+        <v>12881</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009758068413155888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004255934447708991</v>
+        <v>0.004113875565827424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01978541085153992</v>
+        <v>0.01924781619457487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4121,19 +4121,19 @@
         <v>8548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3866</v>
+        <v>3938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15231</v>
+        <v>15948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0063598562619356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002876859025823734</v>
+        <v>0.002929742369920039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01133281291679167</v>
+        <v>0.01186603204374163</v>
       </c>
     </row>
     <row r="5">
@@ -4150,19 +4150,19 @@
         <v>7807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3089</v>
+        <v>3837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13852</v>
+        <v>15444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01156925047088155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004577621071263414</v>
+        <v>0.0056861459970262</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02052778650271321</v>
+        <v>0.02288634748497554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -4171,19 +4171,19 @@
         <v>15373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9253</v>
+        <v>9106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25663</v>
+        <v>23757</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02297264861237244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01382737755721151</v>
+        <v>0.01360720129869095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03834862302125622</v>
+        <v>0.03550112652311047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -4192,19 +4192,19 @@
         <v>23180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14676</v>
+        <v>15054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33839</v>
+        <v>33540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01724717534126133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01091983100830679</v>
+        <v>0.01120086990399995</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02517781318283628</v>
+        <v>0.0249557254173379</v>
       </c>
     </row>
     <row r="6">
@@ -4221,19 +4221,19 @@
         <v>664976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>657842</v>
+        <v>656286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>669955</v>
+        <v>669826</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9854408842486438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9748690297842288</v>
+        <v>0.972563392430407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9928194685386748</v>
+        <v>0.9926285681271207</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>639</v>
@@ -4242,19 +4242,19 @@
         <v>647293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>636020</v>
+        <v>636268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>654445</v>
+        <v>654909</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9672692829744717</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9504244786410146</v>
+        <v>0.950794347513341</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9779575670398832</v>
+        <v>0.9786508709550433</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1281</v>
@@ -4263,19 +4263,19 @@
         <v>1312268</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1300215</v>
+        <v>1299516</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1322454</v>
+        <v>1321712</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9763929683968031</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9674251249069761</v>
+        <v>0.9669045205499492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9839716275680795</v>
+        <v>0.9834192803239282</v>
       </c>
     </row>
     <row r="7">
@@ -4380,19 +4380,19 @@
         <v>4998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1958</v>
+        <v>1918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11341</v>
+        <v>12354</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004796751863236829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001878813771501849</v>
+        <v>0.001841091003116209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01088487304225559</v>
+        <v>0.01185722216210142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -4401,19 +4401,19 @@
         <v>4998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1916</v>
+        <v>1903</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11739</v>
+        <v>11776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002429193184896877</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0009310858703142449</v>
+        <v>0.0009251562644067237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.005706077818039675</v>
+        <v>0.00572374608748287</v>
       </c>
     </row>
     <row r="9">
@@ -4433,16 +4433,16 @@
         <v>2997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13960</v>
+        <v>14154</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0069087783586039</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002951615352010831</v>
+        <v>0.002951091443121643</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01374690529545642</v>
+        <v>0.01393844068703852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -4451,19 +4451,19 @@
         <v>33403</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23644</v>
+        <v>23943</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46177</v>
+        <v>45141</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03205931776580408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02269302134743551</v>
+        <v>0.02297997793086264</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04432015253061086</v>
+        <v>0.04332571338280505</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -4472,19 +4472,19 @@
         <v>40418</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30684</v>
+        <v>29546</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>53397</v>
+        <v>53374</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01964563043400478</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01491434107151137</v>
+        <v>0.01436131791543697</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02595418291205693</v>
+        <v>0.02594266156261562</v>
       </c>
     </row>
     <row r="10">
@@ -4501,7 +4501,7 @@
         <v>1008449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1001505</v>
+        <v>1001311</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1012468</v>
@@ -4510,10 +4510,10 @@
         <v>0.9930912216413961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9862530947045434</v>
+        <v>0.9860615593129615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9970483846479892</v>
+        <v>0.9970489085568783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>936</v>
@@ -4522,19 +4522,19 @@
         <v>1003501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>990226</v>
+        <v>990673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1013613</v>
+        <v>1013198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9631439303709591</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9504032829631111</v>
+        <v>0.9508324361956001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9728496051128623</v>
+        <v>0.9724510092867656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1874</v>
@@ -4543,19 +4543,19 @@
         <v>2011950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1998146</v>
+        <v>1998512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2022733</v>
+        <v>2024242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9779251763810983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9712158031507901</v>
+        <v>0.9713935016535482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9831665656043758</v>
+        <v>0.9839000138504098</v>
       </c>
     </row>
     <row r="11">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4683</v>
+        <v>4710</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001201564155021179</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.005986512540491231</v>
+        <v>0.006021544512089355</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4691</v>
+        <v>4687</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0006112511441847187</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003050659562215815</v>
+        <v>0.003048051087618429</v>
       </c>
     </row>
     <row r="13">
@@ -4710,19 +4710,19 @@
         <v>4576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11362</v>
+        <v>10579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006057918349636832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00148117590312727</v>
+        <v>0.001479987193840115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01504054113912372</v>
+        <v>0.0140050653508495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4731,19 +4731,19 @@
         <v>23289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15366</v>
+        <v>15487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35357</v>
+        <v>36198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02977421978372304</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01964478545022824</v>
+        <v>0.01979898048677482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04520254302294525</v>
+        <v>0.04627772205366246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4752,19 +4752,19 @@
         <v>27865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18803</v>
+        <v>18526</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41266</v>
+        <v>39285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01812270600732071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01222893434504401</v>
+        <v>0.01204886251729502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02683821178428076</v>
+        <v>0.02554991193273479</v>
       </c>
     </row>
     <row r="14">
@@ -4781,19 +4781,19 @@
         <v>750826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>744040</v>
+        <v>744823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>754283</v>
+        <v>754284</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9939420816503631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9849594588608765</v>
+        <v>0.985994934649151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9985188240968728</v>
+        <v>0.9985200128061599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>710</v>
@@ -4802,19 +4802,19 @@
         <v>757967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>745519</v>
+        <v>745021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765880</v>
+        <v>766160</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9690242160612558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9531098196887048</v>
+        <v>0.9524737215582106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9791413452840739</v>
+        <v>0.9794985573007541</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1398</v>
@@ -4823,19 +4823,19 @@
         <v>1508792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1495257</v>
+        <v>1496971</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1517737</v>
+        <v>1518472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9812660428484946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.972463494901817</v>
+        <v>0.9735781969350976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9870835705138442</v>
+        <v>0.9875616300234529</v>
       </c>
     </row>
     <row r="15">
@@ -4940,19 +4940,19 @@
         <v>6222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2298</v>
+        <v>2064</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13700</v>
+        <v>12498</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005991447553339051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002212677107472211</v>
+        <v>0.00198716297497322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01319086933296481</v>
+        <v>0.01203418942578763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4961,19 +4961,19 @@
         <v>6222</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2966</v>
+        <v>2150</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13117</v>
+        <v>14329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003154368557689138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001503724667920982</v>
+        <v>0.001090042161254185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006649351070571744</v>
+        <v>0.00726401117865155</v>
       </c>
     </row>
     <row r="17">
@@ -4990,19 +4990,19 @@
         <v>10480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5666</v>
+        <v>5660</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19013</v>
+        <v>17928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01121909414837106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006065926862408153</v>
+        <v>0.006059612103475655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02035455067922148</v>
+        <v>0.01919252870474136</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -5011,19 +5011,19 @@
         <v>34002</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23952</v>
+        <v>22557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47468</v>
+        <v>46802</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03273934896617604</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02306228861246492</v>
+        <v>0.02171920444565142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04570598926209751</v>
+        <v>0.04506446982235903</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -5032,19 +5032,19 @@
         <v>44481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32240</v>
+        <v>32657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59433</v>
+        <v>59416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02254904647565312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01634332770394355</v>
+        <v>0.01655472011396996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03012824165602633</v>
+        <v>0.03011987408892606</v>
       </c>
     </row>
     <row r="18">
@@ -5061,19 +5061,19 @@
         <v>923614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>915081</v>
+        <v>916166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>928428</v>
+        <v>928434</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9887809058516289</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9796454493207783</v>
+        <v>0.9808074712952586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9939340731375919</v>
+        <v>0.9939403878965243</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>916</v>
@@ -5082,19 +5082,19 @@
         <v>998336</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>983541</v>
+        <v>985151</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1009436</v>
+        <v>1010817</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9612692034804849</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9470234034379866</v>
+        <v>0.9485740401277671</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9719572402610018</v>
+        <v>0.9732873752017817</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1834</v>
@@ -5103,19 +5103,19 @@
         <v>1921950</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1906518</v>
+        <v>1904919</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1935623</v>
+        <v>1934066</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9742965849666577</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9664737499817017</v>
+        <v>0.9656627879705608</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9812278202684932</v>
+        <v>0.9804386342100987</v>
       </c>
     </row>
     <row r="19">
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6919</v>
+        <v>6800</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0005969537922999358</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.002047163896549279</v>
+        <v>0.002011911063695484</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5228,19 +5228,19 @@
         <v>18690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11424</v>
+        <v>11826</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28036</v>
+        <v>29163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005291879159521401</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003234526487247856</v>
+        <v>0.003348358932337195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007937909971764603</v>
+        <v>0.00825701059612001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -5249,19 +5249,19 @@
         <v>20708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13143</v>
+        <v>13258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30973</v>
+        <v>31997</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002996072809712007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001901521707726091</v>
+        <v>0.001918271411385665</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004481310870668605</v>
+        <v>0.004629524879584582</v>
       </c>
     </row>
     <row r="21">
@@ -5278,19 +5278,19 @@
         <v>29878</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19766</v>
+        <v>20612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41964</v>
+        <v>43353</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008840390052148124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005848412825723558</v>
+        <v>0.006098794929536651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01241624656480502</v>
+        <v>0.01282711109418958</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -5299,19 +5299,19 @@
         <v>106067</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>87404</v>
+        <v>87436</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>128785</v>
+        <v>128657</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03003151411472997</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02474724230687034</v>
+        <v>0.02475644609526417</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0364640014751003</v>
+        <v>0.03642763634586436</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -5320,19 +5320,19 @@
         <v>135945</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>115204</v>
+        <v>112853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>162147</v>
+        <v>162480</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01966910931014277</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01666814647164104</v>
+        <v>0.01632796811257146</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02346004366650107</v>
+        <v>0.02350820045874655</v>
       </c>
     </row>
     <row r="22">
@@ -5349,19 +5349,19 @@
         <v>3347865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3334869</v>
+        <v>3334404</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3358062</v>
+        <v>3357283</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9905626561555519</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9867174586755945</v>
+        <v>0.9865799675466194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9935796889056123</v>
+        <v>0.993349259068212</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3201</v>
@@ -5370,19 +5370,19 @@
         <v>3407095</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3384170</v>
+        <v>3385586</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3427387</v>
+        <v>3427227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9646766067257486</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9581856507836909</v>
+        <v>0.9585865137178128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9704221523251015</v>
+        <v>0.9703767682029634</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6387</v>
@@ -5391,19 +5391,19 @@
         <v>6754960</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6725392</v>
+        <v>6728466</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6776097</v>
+        <v>6780739</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9773348178801452</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9730567713283371</v>
+        <v>0.9735015492373231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9803930224700869</v>
+        <v>0.9810646375191001</v>
       </c>
     </row>
     <row r="23">
